--- a/data/hotels_by_city/Dallas/Dallas_shard_219.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_219.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>VKurtB</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>The rooms were occupied by a mix of traditional hotel guests and what seemed like more permanent occupants, but no problems were experienced. There are numerous dining and services options nearby, within walking distance. The staff was small but efficient, and I experienced a very restful stay while at a conference at the Irving Convention Center.More</t>
   </si>
   <si>
+    <t>nithinreddyg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r562049465-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Looked like the room was not cleaned well. TV remote did not work. Location is good with restaurants, pharmacy &amp; banks close by. About 20 minutes from DFW or DAL. Reception staff were not friendly. I paid $45 per night so I might stay here again for that price.More</t>
   </si>
   <si>
+    <t>ByronRocha</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r556423750-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -243,6 +252,9 @@
     <t>I fully recommend this place. It's well located and the neighborhood is quiet. Your will be close to the Airport and also to places to buy groceries or food. I fully recommend the Mediterranean restaurants, they are really awesome.More</t>
   </si>
   <si>
+    <t>311gertrudeb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r554708906-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -270,6 +282,9 @@
     <t>On our third night, when we opened the sofabed (Rm 227) so my sister could join us, my daughter was bitten in 14 places; we saw live bugs and captured one to show, and photographed it. Laundering everything on high heat basically destroyed our clothes. We moved to a different hotel. The ESA hotel manager refunded our stay, but this wrecked what should have been a happy family occasion (wedding of my nephew)More</t>
   </si>
   <si>
+    <t>dhruvh2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r554601937-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -291,6 +306,9 @@
     <t>Clean rooms and quiet location, great price and service, definitely recommend for people wanting a short stay in Las Colinas area. Rooms have all equipment to make it feel like temporary home, laundry on siteMore</t>
   </si>
   <si>
+    <t>L9268ITtomp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r554708915-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -306,6 +324,9 @@
     <t>The hotel is located in a quiet neighborhood of Las Colinas.  The breakfast consisted of coffee, flavored oatmeal, chocolate chip muffins, and peanut butter granola bars.  The staff was very accommodating.  The bed was comfortable.  I needed to turn on the full size refrigerator because it had been turned off.  Fortunately, the refrigerator worked perfectly after I gave it time to cool down.More</t>
   </si>
   <si>
+    <t>Stacy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r546721356-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -333,6 +354,9 @@
     <t>our sheet were not clean and although hotel promise  Continental  breakfast; there was no breakfast but a sign that stated that granola was going to be served and on third and to ask the front desk rep for it if we want one. .More</t>
   </si>
   <si>
+    <t>rickey537</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r545832266-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -363,6 +387,9 @@
     <t>Room was clean, very friendly respectful staff, great location, Girlfriend and I stay here when we come to town cause things are so close to go out and have fun doing anything from going to concerts,all quality restaurants,nighttime spots, shopping etc. 12 minutes is normal time in any direction to do what you want and have so many optionsMore</t>
   </si>
   <si>
+    <t>Sandipda897</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r540293557-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -387,6 +414,9 @@
     <t>I stayed in this property from 22-Oct to 11-Nov. They didn't clean the room even once though they promised to clean in once in every week. I reminded them almost 4 times but no result. Initially the bedsheet was dirty and I had to go to reception to get another sheet and arrange for myself.There was absolutely no morning coffee and other thing; again they broke promise. The security is poor. I saw a scratch at my car and I asked if there is any camera where they can trace something. I talked to them and realized that there no security camera in the entire compound.Internet is super slow in the room and I had to take faster no connection @ $14 for 7 days. That connection is not that fastOverall not a very good experience. Won't recommend staying here got more than 2 days.More</t>
   </si>
   <si>
+    <t>M1156CSdavid</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r531561285-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -414,6 +444,9 @@
     <t>We checked in September 28th it is October 8th and haven't recieved a maid towels clean bedding ect. There is rarely coffee service in the morning. I am a fan of Extended Stays across the U.S. However this hotel is one to avoid.More</t>
   </si>
   <si>
+    <t>Ronnie M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r514935348-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -441,6 +474,9 @@
     <t>Two word's. HUGE rats. And the front desk clerk had some major issue with being in charge.( Dorothy) Very nasty attitude with my family and, other guest there. Room's were ok, other than trash under the bed's. Convenient to other businesses. Seems to be mostly gay and, musilm neighborhood.More</t>
   </si>
   <si>
+    <t>S W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r509007899-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -468,6 +504,9 @@
     <t>The property was nice but the neighbors were loud and hanging out from the time I left for work until after I returned. Basically they were loitering outside their room talking about crimes and partying. I could not relax and I notified the front desk that I would like to move. They ignored me stating I need to wait to speak with The manager in the morning! They did nothing! The other neighbor was actually living there &amp; her relatives were beating &amp; kicking the door. It was very scary. Again nothing was done and that also continued the next day. I stayed from June 20-24, 2017.More</t>
   </si>
   <si>
+    <t>jennyferkeohane</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r502868949-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -495,6 +534,9 @@
     <t>The staff at this location was very friendly and helpful. The room was in a good location and not difficult to find. However, the cleaning staff did not clean this room properly. The room had toys and hair left from previous residence.  The AC unit worked but was not adequate for that room. When I asked about repairs I was told that the maintenance staff is off on the weekend so I would have to change rooms. We were only staying two days so it didn't make sense to change our room. More</t>
   </si>
   <si>
+    <t>Y7225NVgaryg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r501802635-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -519,6 +561,9 @@
     <t>The room was filthy, sheets and pillow cases were stained, there was an assortment of hairs all over the bathroom and in the linens, towels. Surfaces were not cleaned good, a gooey matter on the nightstand. Imagine what was not visible with the human eye. Obviously it was extremely poorly managed.More</t>
   </si>
   <si>
+    <t>yedithc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r497055545-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -543,6 +588,9 @@
     <t>Overall it was a great stay. The staff was friendly and nice. My room had a fridge and stove and everything was in great working order. It is not a continental breakfast. It is a Grab and Go breakfast which means coffee and muffins. I would advise to cook in the room. There's a Walgreens around the corner so you can get quick supplies if you need anything.More</t>
   </si>
   <si>
+    <t>yongshikj</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r495295427-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -567,6 +615,9 @@
     <t>Very good to stay at this low price. There are lots of Indian and Black American, but it was not bad. I had stayed well and satisfied at this hotel. I will stay again if I have a chance again later. All tht staffs were very kind. Few things need to be improved are the wi-fi speed. And sometimes there was no muffin cake for a breakfast even it was 7 am. Overall, I'd like to recommend this hotel.More</t>
   </si>
   <si>
+    <t>vijayalakshmimh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r494732009-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -591,6 +642,9 @@
     <t>Phone was never repaired during my 3 week stay. Utensils were not provided while check in. house keeping was done once a week and that also not consistent. TV is analog which plays only 30 nonsense channels. One of the two stoves was not working.More</t>
   </si>
   <si>
+    <t>480sherir</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r491421051-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -615,6 +669,9 @@
     <t>This hotel was very clean and cozy. The bed was super comfortable and the staff was friendly and personable. A+++ service. I had to switch hotels mid visit and they were understanding and very accommodating to my needs. Will come againMore</t>
   </si>
   <si>
+    <t>kikirob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r481951812-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -640,6 +697,9 @@
   </si>
   <si>
     <t>Nothing fancy but clean hotel. Full refrigerator and kitchen but nothing to cook with might have to request? Staff was nice and location fairly close to airport. No airport shuttle however. A few restaurants in area including Benihana.  More</t>
+  </si>
+  <si>
+    <t>jac3000000</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r479787137-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
@@ -1171,43 +1231,47 @@
       <c r="A2" t="n">
         <v>32596</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>136048</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1219,56 +1283,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>32596</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>136049</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -1290,56 +1358,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>32596</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>136050</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P4" t="n">
         <v>4</v>
@@ -1361,56 +1433,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>32596</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>136051</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -1432,56 +1508,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="X5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>32596</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>136052</v>
+      </c>
+      <c r="C6" t="s">
+        <v>88</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>90</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" t="s">
+        <v>92</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
         <v>84</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>85</v>
-      </c>
-      <c r="J6" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" t="s">
-        <v>86</v>
-      </c>
-      <c r="L6" t="s">
-        <v>87</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>71</v>
-      </c>
-      <c r="O6" t="s">
-        <v>80</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -1503,56 +1583,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>32596</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>136053</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
         <v>4</v>
@@ -1574,56 +1658,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="X7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="Y7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>32596</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>37595</v>
+      </c>
+      <c r="C8" t="s">
+        <v>102</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="J8" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="L8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P8" t="n">
         <v>2</v>
@@ -1645,56 +1733,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="X8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="Y8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>32596</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>136054</v>
+      </c>
+      <c r="C9" t="s">
+        <v>112</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="P9" t="n">
         <v>4</v>
@@ -1716,56 +1808,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="X9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="Y9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>32596</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>136055</v>
+      </c>
+      <c r="C10" t="s">
+        <v>123</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="K10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="L10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1783,56 +1879,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="X10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>32596</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>136056</v>
+      </c>
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="J11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="K11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="L11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="M11" t="n">
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -1848,56 +1948,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>32596</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>25103</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -1909,56 +2013,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>32596</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>22098</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1970,56 +2078,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="X13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="Y13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>32596</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>136057</v>
+      </c>
+      <c r="C14" t="s">
+        <v>162</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="J14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="K14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P14" t="n">
         <v>3</v>
@@ -2041,56 +2153,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="X14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>32596</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>136058</v>
+      </c>
+      <c r="C15" t="s">
+        <v>172</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="J15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="K15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -2112,56 +2228,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="X15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="Y15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>32596</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>136059</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>167</v>
+        <v>182</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>168</v>
+        <v>183</v>
       </c>
       <c r="J16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="K16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="L16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2183,56 +2303,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="X16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="Y16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>32596</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>136060</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2254,56 +2378,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="X17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="Y17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>32596</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>136061</v>
+      </c>
+      <c r="C18" t="s">
+        <v>199</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="J18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="K18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="L18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="n">
         <v>2</v>
@@ -2325,56 +2453,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="X18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="Y18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>32596</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>136062</v>
+      </c>
+      <c r="C19" t="s">
+        <v>208</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="J19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="K19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="L19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P19" t="n">
         <v>5</v>
@@ -2396,56 +2528,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="X19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>32596</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>136063</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="J20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="K20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="M20" t="n">
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -2457,56 +2593,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="X20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="Y20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>32596</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>136064</v>
+      </c>
+      <c r="C21" t="s">
+        <v>227</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="J21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="K21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="L21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2522,13 +2662,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="X21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="Y21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_219.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_219.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="226">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,48 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>VKurtB</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r602417150-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
+  </si>
+  <si>
+    <t>56032</t>
+  </si>
+  <si>
+    <t>217718</t>
+  </si>
+  <si>
+    <t>602417150</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>Cheap and No Frills</t>
+  </si>
+  <si>
+    <t>If you need a cheap room just to sleep &amp; shower, then this is the place. WiFi was very slow, had to sign on constantly. Cable TV lost signal daily. Cigarette butts all over the property grounds. Laundry room had a washing machine with the same clothes &amp; "brown water" during my entire stay which was a week. It was obviously out of order. Nothing was done to remove clothes or repair machine. Rooms have thin walls. I heard every conversation the guests had in the next room. Free breakfast consists of mini prepackaged muffins, packets of oatmeal, granola bars, and coffee. You have to get to breakfast early, or else it will be gone. The door to my room did not lock properly. I would leave room, close the door, and it appeared to be locked. However, when I placed my hand on the door and pushed it...the door opened. That's Not Safe!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Dallas - Las Colinas - Carnaby St., responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>If you need a cheap room just to sleep &amp; shower, then this is the place. WiFi was very slow, had to sign on constantly. Cable TV lost signal daily. Cigarette butts all over the property grounds. Laundry room had a washing machine with the same clothes &amp; "brown water" during my entire stay which was a week. It was obviously out of order. Nothing was done to remove clothes or repair machine. Rooms have thin walls. I heard every conversation the guests had in the next room. Free breakfast consists of mini prepackaged muffins, packets of oatmeal, granola bars, and coffee. You have to get to breakfast early, or else it will be gone. The door to my room did not lock properly. I would leave room, close the door, and it appeared to be locked. However, when I placed my hand on the door and pushed it...the door opened. That's Not Safe!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r568339415-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
-    <t>56032</t>
-  </si>
-  <si>
-    <t>217718</t>
-  </si>
-  <si>
     <t>568339415</t>
   </si>
   <si>
@@ -189,9 +216,6 @@
     <t>The rooms were occupied by a mix of traditional hotel guests and what seemed like more permanent occupants, but no problems were experienced. There are numerous dining and services options nearby, within walking distance. The staff was small but efficient, and I experienced a very restful stay while at a conference at the Irving Convention Center.More</t>
   </si>
   <si>
-    <t>nithinreddyg</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r562049465-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -210,9 +234,6 @@
     <t>February 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Dallas - Las Colinas - Carnaby St., responded to this reviewResponded February 22, 2018</t>
   </si>
   <si>
@@ -222,9 +243,6 @@
     <t>Looked like the room was not cleaned well. TV remote did not work. Location is good with restaurants, pharmacy &amp; banks close by. About 20 minutes from DFW or DAL. Reception staff were not friendly. I paid $45 per night so I might stay here again for that price.More</t>
   </si>
   <si>
-    <t>ByronRocha</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r556423750-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -252,9 +270,6 @@
     <t>I fully recommend this place. It's well located and the neighborhood is quiet. Your will be close to the Airport and also to places to buy groceries or food. I fully recommend the Mediterranean restaurants, they are really awesome.More</t>
   </si>
   <si>
-    <t>311gertrudeb</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r554708906-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -282,9 +297,6 @@
     <t>On our third night, when we opened the sofabed (Rm 227) so my sister could join us, my daughter was bitten in 14 places; we saw live bugs and captured one to show, and photographed it. Laundering everything on high heat basically destroyed our clothes. We moved to a different hotel. The ESA hotel manager refunded our stay, but this wrecked what should have been a happy family occasion (wedding of my nephew)More</t>
   </si>
   <si>
-    <t>dhruvh2018</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r554601937-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -306,9 +318,6 @@
     <t>Clean rooms and quiet location, great price and service, definitely recommend for people wanting a short stay in Las Colinas area. Rooms have all equipment to make it feel like temporary home, laundry on siteMore</t>
   </si>
   <si>
-    <t>L9268ITtomp</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r554708915-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -324,9 +333,6 @@
     <t>The hotel is located in a quiet neighborhood of Las Colinas.  The breakfast consisted of coffee, flavored oatmeal, chocolate chip muffins, and peanut butter granola bars.  The staff was very accommodating.  The bed was comfortable.  I needed to turn on the full size refrigerator because it had been turned off.  Fortunately, the refrigerator worked perfectly after I gave it time to cool down.More</t>
   </si>
   <si>
-    <t>Stacy B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r546721356-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -354,9 +360,6 @@
     <t>our sheet were not clean and although hotel promise  Continental  breakfast; there was no breakfast but a sign that stated that granola was going to be served and on third and to ask the front desk rep for it if we want one. .More</t>
   </si>
   <si>
-    <t>rickey537</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r545832266-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -387,9 +390,6 @@
     <t>Room was clean, very friendly respectful staff, great location, Girlfriend and I stay here when we come to town cause things are so close to go out and have fun doing anything from going to concerts,all quality restaurants,nighttime spots, shopping etc. 12 minutes is normal time in any direction to do what you want and have so many optionsMore</t>
   </si>
   <si>
-    <t>Sandipda897</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r540293557-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -414,9 +414,6 @@
     <t>I stayed in this property from 22-Oct to 11-Nov. They didn't clean the room even once though they promised to clean in once in every week. I reminded them almost 4 times but no result. Initially the bedsheet was dirty and I had to go to reception to get another sheet and arrange for myself.There was absolutely no morning coffee and other thing; again they broke promise. The security is poor. I saw a scratch at my car and I asked if there is any camera where they can trace something. I talked to them and realized that there no security camera in the entire compound.Internet is super slow in the room and I had to take faster no connection @ $14 for 7 days. That connection is not that fastOverall not a very good experience. Won't recommend staying here got more than 2 days.More</t>
   </si>
   <si>
-    <t>M1156CSdavid</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r531561285-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -444,9 +441,6 @@
     <t>We checked in September 28th it is October 8th and haven't recieved a maid towels clean bedding ect. There is rarely coffee service in the morning. I am a fan of Extended Stays across the U.S. However this hotel is one to avoid.More</t>
   </si>
   <si>
-    <t>Ronnie M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r514935348-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -474,9 +468,6 @@
     <t>Two word's. HUGE rats. And the front desk clerk had some major issue with being in charge.( Dorothy) Very nasty attitude with my family and, other guest there. Room's were ok, other than trash under the bed's. Convenient to other businesses. Seems to be mostly gay and, musilm neighborhood.More</t>
   </si>
   <si>
-    <t>S W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r509007899-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -504,9 +495,6 @@
     <t>The property was nice but the neighbors were loud and hanging out from the time I left for work until after I returned. Basically they were loitering outside their room talking about crimes and partying. I could not relax and I notified the front desk that I would like to move. They ignored me stating I need to wait to speak with The manager in the morning! They did nothing! The other neighbor was actually living there &amp; her relatives were beating &amp; kicking the door. It was very scary. Again nothing was done and that also continued the next day. I stayed from June 20-24, 2017.More</t>
   </si>
   <si>
-    <t>jennyferkeohane</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r502868949-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -534,9 +522,6 @@
     <t>The staff at this location was very friendly and helpful. The room was in a good location and not difficult to find. However, the cleaning staff did not clean this room properly. The room had toys and hair left from previous residence.  The AC unit worked but was not adequate for that room. When I asked about repairs I was told that the maintenance staff is off on the weekend so I would have to change rooms. We were only staying two days so it didn't make sense to change our room. More</t>
   </si>
   <si>
-    <t>Y7225NVgaryg</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r501802635-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -561,9 +546,6 @@
     <t>The room was filthy, sheets and pillow cases were stained, there was an assortment of hairs all over the bathroom and in the linens, towels. Surfaces were not cleaned good, a gooey matter on the nightstand. Imagine what was not visible with the human eye. Obviously it was extremely poorly managed.More</t>
   </si>
   <si>
-    <t>yedithc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r497055545-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -588,9 +570,6 @@
     <t>Overall it was a great stay. The staff was friendly and nice. My room had a fridge and stove and everything was in great working order. It is not a continental breakfast. It is a Grab and Go breakfast which means coffee and muffins. I would advise to cook in the room. There's a Walgreens around the corner so you can get quick supplies if you need anything.More</t>
   </si>
   <si>
-    <t>yongshikj</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r495295427-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -615,9 +594,6 @@
     <t>Very good to stay at this low price. There are lots of Indian and Black American, but it was not bad. I had stayed well and satisfied at this hotel. I will stay again if I have a chance again later. All tht staffs were very kind. Few things need to be improved are the wi-fi speed. And sometimes there was no muffin cake for a breakfast even it was 7 am. Overall, I'd like to recommend this hotel.More</t>
   </si>
   <si>
-    <t>vijayalakshmimh</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r494732009-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -642,9 +618,6 @@
     <t>Phone was never repaired during my 3 week stay. Utensils were not provided while check in. house keeping was done once a week and that also not consistent. TV is analog which plays only 30 nonsense channels. One of the two stoves was not working.More</t>
   </si>
   <si>
-    <t>480sherir</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r491421051-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -669,9 +642,6 @@
     <t>This hotel was very clean and cozy. The bed was super comfortable and the staff was friendly and personable. A+++ service. I had to switch hotels mid visit and they were understanding and very accommodating to my needs. Will come againMore</t>
   </si>
   <si>
-    <t>kikirob</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r481951812-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
   </si>
   <si>
@@ -697,9 +667,6 @@
   </si>
   <si>
     <t>Nothing fancy but clean hotel. Full refrigerator and kitchen but nothing to cook with might have to request? Staff was nice and location fairly close to airport. No airport shuttle however. A few restaurants in area including Benihana.  More</t>
-  </si>
-  <si>
-    <t>jac3000000</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56032-d217718-r479787137-Extended_Stay_America_Dallas_Las_Colinas_Carnaby_St-Irving_Texas.html</t>
@@ -1231,47 +1198,43 @@
       <c r="A2" t="n">
         <v>32596</v>
       </c>
-      <c r="B2" t="n">
-        <v>136048</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1283,363 +1246,333 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>32596</v>
       </c>
-      <c r="B3" t="n">
-        <v>136049</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>4</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>62</v>
       </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>3</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>63</v>
+      </c>
+      <c r="X3" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y3" t="s">
         <v>65</v>
-      </c>
-      <c r="X3" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>32596</v>
       </c>
-      <c r="B4" t="n">
-        <v>136050</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>70</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
         <v>71</v>
       </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
       <c r="O4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P4" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>3</v>
+      </c>
+      <c r="R4" t="n">
         <v>4</v>
       </c>
-      <c r="Q4" t="n">
-        <v>4</v>
-      </c>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>32596</v>
       </c>
-      <c r="B5" t="n">
-        <v>136051</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s">
         <v>79</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>80</v>
       </c>
-      <c r="J5" t="s">
-        <v>81</v>
-      </c>
-      <c r="K5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
       <c r="O5" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="X5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Y5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>32596</v>
       </c>
-      <c r="B6" t="n">
-        <v>136052</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>85</v>
+      </c>
+      <c r="J6" t="s">
+        <v>86</v>
+      </c>
+      <c r="K6" t="s">
+        <v>87</v>
+      </c>
+      <c r="L6" t="s">
         <v>88</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
         <v>89</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>90</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>91</v>
-      </c>
-      <c r="L6" t="s">
-        <v>92</v>
-      </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>74</v>
-      </c>
-      <c r="O6" t="s">
-        <v>84</v>
-      </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="X6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="Y6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>32596</v>
       </c>
-      <c r="B7" t="n">
-        <v>136053</v>
-      </c>
-      <c r="C7" t="s">
-        <v>96</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="P7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q7" t="n">
         <v>5</v>
@@ -1658,285 +1591,275 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="X7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>32596</v>
       </c>
-      <c r="B8" t="n">
-        <v>37595</v>
-      </c>
-      <c r="C8" t="s">
-        <v>102</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L8" t="s">
         <v>103</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" t="s">
-        <v>105</v>
-      </c>
-      <c r="K8" t="s">
-        <v>106</v>
-      </c>
-      <c r="L8" t="s">
-        <v>107</v>
-      </c>
       <c r="M8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>108</v>
+        <v>80</v>
       </c>
       <c r="O8" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="X8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="Y8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>32596</v>
       </c>
-      <c r="B9" t="n">
-        <v>136054</v>
-      </c>
-      <c r="C9" t="s">
-        <v>112</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O9" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
         <v>4</v>
       </c>
-      <c r="Q9" t="n">
-        <v>4</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="X9" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="Y9" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>32596</v>
       </c>
-      <c r="B10" t="n">
-        <v>136055</v>
-      </c>
-      <c r="C10" t="s">
-        <v>123</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+        <v>120</v>
+      </c>
+      <c r="P10" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>4</v>
+      </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S10" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="X10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="Y10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>32596</v>
       </c>
-      <c r="B11" t="n">
-        <v>136056</v>
-      </c>
-      <c r="C11" t="s">
-        <v>132</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>3</v>
+      </c>
       <c r="S11" t="n">
         <v>1</v>
       </c>
@@ -1948,125 +1871,121 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="X11" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="Y11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>32596</v>
       </c>
-      <c r="B12" t="n">
-        <v>25103</v>
-      </c>
-      <c r="C12" t="s">
-        <v>142</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="J12" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="K12" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="L12" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="X12" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="Y12" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>32596</v>
       </c>
-      <c r="B13" t="n">
-        <v>22098</v>
-      </c>
-      <c r="C13" t="s">
-        <v>152</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="J13" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="K13" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="L13" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2078,291 +1997,265 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="X13" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="Y13" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>32596</v>
       </c>
-      <c r="B14" t="n">
-        <v>136057</v>
-      </c>
-      <c r="C14" t="s">
-        <v>162</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="J14" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="K14" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="L14" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>5</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="X14" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="Y14" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>32596</v>
       </c>
-      <c r="B15" t="n">
-        <v>136058</v>
-      </c>
-      <c r="C15" t="s">
-        <v>172</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="J15" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="K15" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="L15" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R15" t="n">
         <v>5</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="X15" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="Y15" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>32596</v>
       </c>
-      <c r="B16" t="n">
-        <v>136059</v>
-      </c>
-      <c r="C16" t="s">
-        <v>181</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="J16" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="K16" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="L16" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="O16" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="P16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R16" t="n">
         <v>5</v>
       </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="X16" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="Y16" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>32596</v>
       </c>
-      <c r="B17" t="n">
-        <v>136060</v>
-      </c>
-      <c r="C17" t="s">
-        <v>190</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="J17" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
         <v>5</v>
@@ -2372,303 +2265,358 @@
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="X17" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>32596</v>
       </c>
-      <c r="B18" t="n">
-        <v>136061</v>
-      </c>
-      <c r="C18" t="s">
-        <v>199</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="X18" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="Y18" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>32596</v>
       </c>
-      <c r="B19" t="n">
-        <v>136062</v>
-      </c>
-      <c r="C19" t="s">
-        <v>208</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="J19" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="K19" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="O19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="X19" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="Y19" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>32596</v>
       </c>
-      <c r="B20" t="n">
-        <v>136063</v>
-      </c>
-      <c r="C20" t="s">
-        <v>217</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>223</v>
+        <v>155</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="s"/>
-      <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
-      <c r="S20" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="X20" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="Y20" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>32596</v>
       </c>
-      <c r="B21" t="n">
-        <v>136064</v>
-      </c>
-      <c r="C21" t="s">
-        <v>227</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="J21" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="K21" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="L21" t="s">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>233</v>
+        <v>213</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
-      <c r="R21" t="n">
-        <v>5</v>
-      </c>
+      <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="X21" t="s">
-        <v>235</v>
+        <v>215</v>
       </c>
       <c r="Y21" t="s">
-        <v>236</v>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>32596</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>217</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>218</v>
+      </c>
+      <c r="J22" t="s">
+        <v>219</v>
+      </c>
+      <c r="K22" t="s">
+        <v>220</v>
+      </c>
+      <c r="L22" t="s">
+        <v>221</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>222</v>
+      </c>
+      <c r="O22" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>223</v>
+      </c>
+      <c r="X22" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
